--- a/FixedCouponBond.xlsx
+++ b/FixedCouponBond.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="30" windowWidth="18075" windowHeight="11760"/>
@@ -12,12 +12,12 @@
   <definedNames>
     <definedName name="today">FixedCouponBond!$C$2</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Today</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t>Recovery rate</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>NDP</t>
   </si>
 </sst>
 </file>
@@ -63,10 +69,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +125,14 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -259,49 +273,50 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Migliaia" xfId="2" builtinId="3"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentuale" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -309,7 +324,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -596,7 +611,7 @@
   <dimension ref="B2:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -611,447 +626,448 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="17">
         <v>41578</v>
       </c>
     </row>
     <row r="3" spans="2:11">
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="25" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="9"/>
+      <c r="C4" s="29"/>
       <c r="E4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="30" t="s">
+      <c r="K4" s="27" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:11">
       <c r="B5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="18">
+        <v>4972284.0199999996</v>
+      </c>
+      <c r="F5" s="9">
+        <v>40238</v>
+      </c>
+      <c r="G5" s="9">
+        <v>44409</v>
+      </c>
+      <c r="H5" s="10">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="21">
-        <v>4972284.0199999996</v>
-      </c>
-      <c r="F5" s="10">
-        <v>40238</v>
-      </c>
-      <c r="G5" s="10">
-        <v>44409</v>
-      </c>
-      <c r="H5" s="11">
-        <v>3</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="I5" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="10">
         <v>0.2</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="K5" s="19"/>
     </row>
     <row r="6" spans="2:11">
       <c r="B6" s="7">
         <v>41993</v>
       </c>
       <c r="C6" s="4">
-        <v>1.49E-2</v>
-      </c>
-      <c r="E6" s="21">
+        <v>0.97215972701501396</v>
+      </c>
+      <c r="E6" s="18">
         <v>7344328.2699999996</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>39995</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>44743</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="10">
         <v>3</v>
       </c>
-      <c r="I6" s="12">
+      <c r="I6" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="10">
         <v>0.2</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="19"/>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="7">
         <v>42358</v>
       </c>
       <c r="C7" s="4">
-        <v>1.6500000000000001E-2</v>
-      </c>
-      <c r="E7" s="21">
+        <v>0.94292632917440633</v>
+      </c>
+      <c r="E7" s="18">
         <v>7172290.1900000004</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>41275</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>42979</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="10">
         <v>6</v>
       </c>
-      <c r="I7" s="12">
+      <c r="I7" s="11">
         <v>0.02</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>0.4</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="19"/>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="7">
         <v>42724</v>
       </c>
       <c r="C8" s="4">
-        <v>1.7299999999999999E-2</v>
-      </c>
-      <c r="E8" s="21">
+        <v>0.91344805625013747</v>
+      </c>
+      <c r="E8" s="18">
         <v>7065224.2300000004</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>40238</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>41913</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="10">
         <v>6</v>
       </c>
-      <c r="I8" s="12">
+      <c r="I8" s="11">
         <v>0.02</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>0.4</v>
       </c>
-      <c r="K8" s="22"/>
+      <c r="K8" s="19"/>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="7">
         <v>43454</v>
       </c>
       <c r="C9" s="4">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="E9" s="21">
+        <v>0.85564045281976642</v>
+      </c>
+      <c r="E9" s="18">
         <v>5256452.1399999997</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>40725</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>42461</v>
       </c>
-      <c r="H9" s="11">
+      <c r="H9" s="10">
         <v>6</v>
       </c>
-      <c r="I9" s="12">
+      <c r="I9" s="11">
         <v>0.02</v>
       </c>
-      <c r="J9" s="11">
+      <c r="J9" s="10">
         <v>0.4</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="19"/>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="7">
-        <v>41628</v>
+        <v>45280</v>
       </c>
       <c r="C10" s="4">
-        <v>1.83E-2</v>
-      </c>
-      <c r="E10" s="21">
+        <v>0.73268777967546939</v>
+      </c>
+      <c r="E10" s="18">
         <v>2689680.89</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>40057</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>45474</v>
       </c>
-      <c r="H10" s="11">
+      <c r="H10" s="10">
         <v>6</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>0.02</v>
       </c>
-      <c r="J10" s="11">
+      <c r="J10" s="10">
         <v>0.6</v>
       </c>
-      <c r="K10" s="22"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="8">
         <v>48933</v>
       </c>
       <c r="C11" s="6">
-        <v>1.84E-2</v>
-      </c>
-      <c r="E11" s="21">
+        <v>0.53904601648775841</v>
+      </c>
+      <c r="E11" s="18">
         <v>3593518.71</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>40360</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>43497</v>
       </c>
-      <c r="H11" s="11">
+      <c r="H11" s="10">
         <v>12</v>
       </c>
-      <c r="I11" s="12">
+      <c r="I11" s="11">
         <v>0.02</v>
       </c>
-      <c r="J11" s="11">
+      <c r="J11" s="10">
         <v>0.6</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="19"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="E12" s="21">
+      <c r="D12" s="28"/>
+      <c r="E12" s="18">
         <v>6993589.5300000003</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="9">
         <v>40544</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>43405</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="10">
         <v>12</v>
       </c>
-      <c r="I12" s="12">
+      <c r="I12" s="11">
         <v>0.02</v>
       </c>
-      <c r="J12" s="11">
+      <c r="J12" s="10">
         <v>0.6</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="19"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="E13" s="21">
+      <c r="C13" s="31"/>
+      <c r="E13" s="18">
         <v>6684377.5199999996</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="9">
         <v>40057</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>44440</v>
       </c>
-      <c r="H13" s="11">
+      <c r="H13" s="10">
         <v>12</v>
       </c>
-      <c r="I13" s="12">
+      <c r="I13" s="11">
         <v>0.02</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>0.6</v>
       </c>
-      <c r="K13" s="22"/>
+      <c r="K13" s="19"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="21">
+      <c r="E14" s="18">
         <v>6896199.04</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="9">
         <v>40360</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>43405</v>
       </c>
-      <c r="H14" s="11">
+      <c r="H14" s="10">
         <v>12</v>
       </c>
-      <c r="I14" s="12">
+      <c r="I14" s="11">
         <v>2.7E-2</v>
       </c>
-      <c r="J14" s="11">
+      <c r="J14" s="10">
         <v>0.4</v>
       </c>
-      <c r="K14" s="22"/>
+      <c r="K14" s="19"/>
     </row>
     <row r="15" spans="2:11">
       <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="14">
         <v>1.06E-3</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="18">
         <v>2587984.6</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9">
         <v>40817</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>44105</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="10">
         <v>12</v>
       </c>
-      <c r="I15" s="12">
+      <c r="I15" s="11">
         <v>0.02</v>
       </c>
-      <c r="J15" s="11">
+      <c r="J15" s="10">
         <v>0.4</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="19"/>
     </row>
     <row r="16" spans="2:11">
       <c r="B16" s="3">
         <v>2</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="14">
         <v>1.14E-3</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E16" s="18">
         <v>3621656.1</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="9">
         <v>41061</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>42552</v>
       </c>
-      <c r="H16" s="11">
+      <c r="H16" s="10">
         <v>6</v>
       </c>
-      <c r="I16" s="12">
+      <c r="I16" s="11">
         <v>2.7E-2</v>
       </c>
-      <c r="J16" s="11">
+      <c r="J16" s="10">
         <v>0.4</v>
       </c>
-      <c r="K16" s="22"/>
+      <c r="K16" s="19"/>
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="3">
         <v>3</v>
       </c>
-      <c r="C17" s="17">
+      <c r="C17" s="14">
         <v>1.15E-3</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="18">
         <v>3146567.47</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="9">
         <v>40695</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>44621</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="10">
         <v>6</v>
       </c>
-      <c r="I17" s="12">
+      <c r="I17" s="11">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="J17" s="11">
+      <c r="J17" s="10">
         <v>0.2</v>
       </c>
-      <c r="K17" s="22"/>
+      <c r="K17" s="19"/>
     </row>
     <row r="18" spans="2:11">
       <c r="B18" s="3">
         <v>4</v>
       </c>
-      <c r="C18" s="17">
+      <c r="C18" s="14">
         <v>1.17E-3</v>
       </c>
-      <c r="E18" s="21">
+      <c r="E18" s="18">
         <v>6452721.6100000003</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="9">
         <v>39904</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>43556</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>3</v>
       </c>
-      <c r="I18" s="12">
+      <c r="I18" s="11">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="10">
         <v>0.2</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" spans="2:11">
       <c r="B19" s="3">
         <v>5</v>
       </c>
-      <c r="C19" s="17">
+      <c r="C19" s="14">
         <v>1.1900000000000001E-3</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="20">
         <v>3418346.24</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="21">
         <v>40299</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="21">
         <v>42370</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="22">
         <v>3</v>
       </c>
-      <c r="I19" s="26">
+      <c r="I19" s="23">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="22">
         <v>0.2</v>
       </c>
-      <c r="K19" s="27"/>
+      <c r="K19" s="24"/>
     </row>
     <row r="20" spans="2:11">
       <c r="B20" s="3">
         <v>6</v>
       </c>
-      <c r="C20" s="17">
+      <c r="C20" s="14">
         <v>1.2099999999999999E-3</v>
       </c>
     </row>
@@ -1059,7 +1075,7 @@
       <c r="B21" s="3">
         <v>7</v>
       </c>
-      <c r="C21" s="17">
+      <c r="C21" s="14">
         <v>1.2199999999999999E-3</v>
       </c>
     </row>
@@ -1067,7 +1083,7 @@
       <c r="B22" s="3">
         <v>8</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="14">
         <v>1.24E-3</v>
       </c>
     </row>
@@ -1075,7 +1091,7 @@
       <c r="B23" s="3">
         <v>9</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="14">
         <v>1.2800000000000001E-3</v>
       </c>
     </row>
@@ -1083,7 +1099,7 @@
       <c r="B24" s="3">
         <v>10</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="14">
         <v>1.31E-3</v>
       </c>
     </row>
@@ -1091,7 +1107,7 @@
       <c r="B25" s="3">
         <v>11</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="14">
         <v>1.3500000000000001E-3</v>
       </c>
     </row>
@@ -1099,7 +1115,7 @@
       <c r="B26" s="3">
         <v>12</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="14">
         <v>1.3799999999999999E-3</v>
       </c>
     </row>
@@ -1107,7 +1123,7 @@
       <c r="B27" s="3">
         <v>15</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="14">
         <v>1.5200000000000001E-3</v>
       </c>
     </row>
@@ -1115,7 +1131,7 @@
       <c r="B28" s="3">
         <v>18</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="14">
         <v>1.66E-3</v>
       </c>
     </row>
@@ -1123,7 +1139,7 @@
       <c r="B29" s="3">
         <v>21</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="14">
         <v>1.8400000000000001E-3</v>
       </c>
     </row>
@@ -1131,7 +1147,7 @@
       <c r="B30" s="3">
         <v>24</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="14">
         <v>2.0600000000000002E-3</v>
       </c>
     </row>
@@ -1139,7 +1155,7 @@
       <c r="B31" s="3">
         <v>36</v>
       </c>
-      <c r="C31" s="17">
+      <c r="C31" s="14">
         <v>3.4399999999999999E-3</v>
       </c>
     </row>
@@ -1147,7 +1163,7 @@
       <c r="B32" s="3">
         <v>48</v>
       </c>
-      <c r="C32" s="17">
+      <c r="C32" s="14">
         <v>5.4300000000000008E-3</v>
       </c>
     </row>
@@ -1155,7 +1171,7 @@
       <c r="B33" s="3">
         <v>60</v>
       </c>
-      <c r="C33" s="17">
+      <c r="C33" s="14">
         <v>7.5599999999999999E-3</v>
       </c>
     </row>
@@ -1163,7 +1179,7 @@
       <c r="B34" s="3">
         <v>72</v>
       </c>
-      <c r="C34" s="17">
+      <c r="C34" s="14">
         <v>9.6699999999999998E-3</v>
       </c>
     </row>
@@ -1171,7 +1187,7 @@
       <c r="B35" s="3">
         <v>84</v>
       </c>
-      <c r="C35" s="17">
+      <c r="C35" s="14">
         <v>1.162E-2</v>
       </c>
     </row>
@@ -1179,7 +1195,7 @@
       <c r="B36" s="3">
         <v>96</v>
       </c>
-      <c r="C36" s="17">
+      <c r="C36" s="14">
         <v>1.34E-2</v>
       </c>
     </row>
@@ -1187,7 +1203,7 @@
       <c r="B37" s="3">
         <v>108</v>
       </c>
-      <c r="C37" s="17">
+      <c r="C37" s="14">
         <v>1.502E-2</v>
       </c>
     </row>
@@ -1195,7 +1211,7 @@
       <c r="B38" s="3">
         <v>120</v>
       </c>
-      <c r="C38" s="17">
+      <c r="C38" s="14">
         <v>1.6490000000000001E-2</v>
       </c>
     </row>
@@ -1203,7 +1219,7 @@
       <c r="B39" s="3">
         <v>132</v>
       </c>
-      <c r="C39" s="17">
+      <c r="C39" s="14">
         <v>1.7760000000000001E-2</v>
       </c>
     </row>
@@ -1211,7 +1227,7 @@
       <c r="B40" s="3">
         <v>144</v>
       </c>
-      <c r="C40" s="17">
+      <c r="C40" s="14">
         <v>1.8880000000000001E-2</v>
       </c>
     </row>
@@ -1219,7 +1235,7 @@
       <c r="B41" s="3">
         <v>180</v>
       </c>
-      <c r="C41" s="17">
+      <c r="C41" s="14">
         <v>2.137E-2</v>
       </c>
     </row>
@@ -1227,7 +1243,7 @@
       <c r="B42" s="3">
         <v>240</v>
       </c>
-      <c r="C42" s="17">
+      <c r="C42" s="14">
         <v>2.3220000000000001E-2</v>
       </c>
     </row>
@@ -1235,7 +1251,7 @@
       <c r="B43" s="3">
         <v>300</v>
       </c>
-      <c r="C43" s="17">
+      <c r="C43" s="14">
         <v>2.3890000000000002E-2</v>
       </c>
     </row>
@@ -1243,7 +1259,7 @@
       <c r="B44" s="5">
         <v>360</v>
       </c>
-      <c r="C44" s="18">
+      <c r="C44" s="15">
         <v>2.4160000000000001E-2</v>
       </c>
     </row>
